--- a/Shopzier_CheckOut_Divyansh.xlsx
+++ b/Shopzier_CheckOut_Divyansh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divyansh_sen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F8DC1F-AB27-49C7-B8FC-EC11CE981093}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FDD66-8E9C-487A-B32B-A4DC344A286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2A8E1874-D545-4476-BDDE-A5F2CE78741E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>Tc_id</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>User must have a mobile or computer</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>To check weather the added products are visible on hover the Shopping Cart</t>
   </si>
   <si>
-    <t>User must able to see the added products on shopping cart</t>
-  </si>
-  <si>
     <t>As Expected</t>
   </si>
   <si>
@@ -160,39 +154,12 @@
     <t>Field should validate and accept the number</t>
   </si>
   <si>
-    <t>abc7896541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d should validate and should not accept </t>
-  </si>
-  <si>
     <t>To check alphanumneric characters are accepted in Phone Number</t>
   </si>
   <si>
-    <t>User must enter the phone number</t>
-  </si>
-  <si>
-    <t>User should click on the checkbox of create an account</t>
-  </si>
-  <si>
-    <t>user should able to create account password</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expected</t>
-  </si>
-  <si>
     <t>To check that on clicking checkbox of create an account user should able to create account password</t>
   </si>
   <si>
-    <t>To check wheather the added products are visible on hover the Shopping Cart</t>
-  </si>
-  <si>
-    <t>Using mouse or touchpad move the cursor on the products</t>
-  </si>
-  <si>
-    <t>SC_01_TC_01</t>
-  </si>
-  <si>
     <t>SC_02_TC_02</t>
   </si>
   <si>
@@ -208,9 +175,6 @@
     <t>SC_02_TC_03</t>
   </si>
   <si>
-    <t>Check for alphabet is accepted in boyh lower and upper case</t>
-  </si>
-  <si>
     <t>User must able to enter the firstName with Combination of Upper and lower letters</t>
   </si>
   <si>
@@ -235,12 +199,6 @@
     <t>SC_06_TC_06</t>
   </si>
   <si>
-    <t>SC_07_TC_07</t>
-  </si>
-  <si>
-    <t>SC_08_TC_08</t>
-  </si>
-  <si>
     <t>Scenario name</t>
   </si>
   <si>
@@ -254,13 +212,28 @@
   </si>
   <si>
     <t>Select alteast one product and move to add to cart</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Check for alphabet is accepted in both lower and upper case</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>To check only numbers are accepted in 10 digit Phone Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,13 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF23262B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,9 +410,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,10 +457,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -511,6 +476,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -848,16 +825,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -869,10 +846,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16"/>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -880,18 +857,18 @@
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="87">
+    <row r="3" spans="1:11" ht="58">
       <c r="A3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -904,8 +881,8 @@
     <row r="4" spans="1:11">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="19" t="s">
-        <v>12</v>
+      <c r="C4" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -920,10 +897,10 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -935,27 +912,27 @@
     </row>
     <row r="6" spans="1:11" ht="29">
       <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="101.5">
+    <row r="7" spans="1:11" ht="58">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -968,7 +945,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -978,12 +955,12 @@
       <c r="J8" s="12"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="72.5">
+    <row r="9" spans="1:11" ht="43.5">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -1006,12 +983,12 @@
       <c r="J10" s="12"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="58">
+    <row r="11" spans="1:11" ht="43.5">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -1034,12 +1011,12 @@
       <c r="J12" s="12"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="58">
+    <row r="13" spans="1:11" ht="43.5">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1056,18 +1033,18 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
-        <v>43</v>
+      <c r="D15" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1090,17 +1067,17 @@
       <c r="J16" s="12"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="116">
+    <row r="17" spans="1:11" ht="72.5">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="10"/>
       <c r="J17" s="12"/>
       <c r="K17" s="10"/>
@@ -1120,7 +1097,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1147,7 +1124,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1620,993 +1597,788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD02279-6AC8-48EF-8669-DEB2B02D64B6}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="38.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="29">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="26"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="25"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="25" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="29">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="28"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="17"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" ht="29">
-      <c r="A6" s="28"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="28"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="29">
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="30"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="26"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="29"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="25"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="29">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="28"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="28"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" ht="29">
-      <c r="A13" s="28"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="28"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" ht="29">
+      <c r="B14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="30"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="26"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="28" t="s">
-        <v>52</v>
+      <c r="J14" s="17"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="17"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="29">
+      <c r="A17" t="s">
+        <v>60</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="17"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="28"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="28"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="B19" s="17"/>
-      <c r="C19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="17"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="28"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="29">
       <c r="B20" s="17"/>
-      <c r="C20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="17"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="30"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="17"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="25"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="29">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="27"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="17">
+      <c r="E24" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="17"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="27"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="29">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="17"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="27"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="27"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="26"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="29"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="17"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="29">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="17"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="28"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="28"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="F31" s="32"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="28"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="17"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="F32" s="32"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="28"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="F33" s="32"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="30"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="17"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="17"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="6"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="17"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="17"/>
+    </row>
+    <row r="41" spans="1:11" ht="29">
       <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="19"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="17" t="s">
-        <v>64</v>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>60</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="17">
+        <v>9485756217</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" s="17"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="17">
-        <v>1</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="32"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="17"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="B46" s="17"/>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:11" ht="29">
+      <c r="B47" s="17"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" ht="29">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="16" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="19"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="17">
-        <v>9485756217</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:9" ht="29">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:9" ht="29">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="C64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9">
-      <c r="C65" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" ht="29">
-      <c r="C66" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
-        <v>19</v>
-      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F44" r:id="rId1" display="abc@gmail.com" xr:uid="{997FE2C7-A344-4EAF-B76B-5A189FCDDD3D}"/>
+    <hyperlink ref="G38" r:id="rId1" display="abc@gmail.com" xr:uid="{997FE2C7-A344-4EAF-B76B-5A189FCDDD3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
